--- a/Data Sets/GSE160310/Patients Details.xlsx
+++ b/Data Sets/GSE160310/Patients Details.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="56">
   <si>
     <t>Sample Name</t>
   </si>
@@ -165,6 +165,33 @@
   </si>
   <si>
     <t>Insulin, glipizide</t>
+  </si>
+  <si>
+    <t>34 yrs</t>
+  </si>
+  <si>
+    <t>PDR</t>
+  </si>
+  <si>
+    <t>23 yrs, DR 7yrs</t>
+  </si>
+  <si>
+    <t>&gt;17 yrs</t>
+  </si>
+  <si>
+    <t>Lantus , Humalog</t>
+  </si>
+  <si>
+    <t>&gt;8yrs</t>
+  </si>
+  <si>
+    <t>metformin, humalog, lantus</t>
+  </si>
+  <si>
+    <t>&gt;8 yrs</t>
+  </si>
+  <si>
+    <t>Lantus, Humalog</t>
   </si>
 </sst>
 </file>
@@ -491,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,15 +716,78 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2061,90 +2151,468 @@
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64">
+        <v>65</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65">
+        <v>65</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>59</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>61</v>
+      </c>
+      <c r="D69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69">
+        <v>65</v>
+      </c>
+      <c r="G69" t="s">
+        <v>48</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>77</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74">
+        <v>65</v>
+      </c>
+      <c r="G74" t="s">
+        <v>48</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>61</v>
+      </c>
+      <c r="D79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79">
+        <v>65</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>82</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F81">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2154,6 +2622,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD2426971B265B4AA1E19D0FC961ABAE" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4f345469dba95274e4c651542f1b0f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b83b6a10-bee6-40cf-bda5-5d1b5ac3fafe" xmlns:ns4="41bca009-928a-4a46-8233-eb3115c0873b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1745ec6c30fd1e1923178220d5d2b44" ns3:_="" ns4:_="">
     <xsd:import namespace="b83b6a10-bee6-40cf-bda5-5d1b5ac3fafe"/>
@@ -2394,15 +2871,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2412,6 +2880,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5DB904F-A25D-486C-93A9-FA26571769AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0ADF3C1F-00FA-48A4-B32A-3CFF8DE1C02A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2430,27 +2906,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5DB904F-A25D-486C-93A9-FA26571769AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C451D34A-55C1-4225-B4FD-33E50CBC82BF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="41bca009-928a-4a46-8233-eb3115c0873b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b83b6a10-bee6-40cf-bda5-5d1b5ac3fafe"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="41bca009-928a-4a46-8233-eb3115c0873b"/>
-    <ds:schemaRef ds:uri="b83b6a10-bee6-40cf-bda5-5d1b5ac3fafe"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>